--- a/500all/speech_level/speeches_CHRG-114hhrg96954.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96954.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="297">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412526</t>
   </si>
   <si>
-    <t>Ron DeSantis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DeSantis. Subcommittee on National Security and the Subcommittee on Healthcare, Benefits, and Administrative Rules convenes today to review the President's executive actions on immigration.    On November 20, 2014, just 2 weeks after the 2014 midterm elections, President Obama made far-reaching unilateral changes to our Nation's immigration policy, despite saying on over 22 different occasions that he did not have the authority to do so. In his address on that day, the President said that: We're a Nation of laws. Those who broke our immigration laws must be held accountable, especially those who are dangerous. That's why over the past 6 years, deportations of criminals are up 80 percent. And that's why we're going to keep focusing enforcement resources on actual threats to our security. We will prioritize, just like law enforcement does every day.    The administration's actions, however, have not matched the President's rhetoric. According to documents provided to the House Judiciary Committee by DHS in April of this year, ICE arrests of criminal illegal aliens has declined 32 percent from the same period a year before, with 51,337 administrative arrests of criminal aliens in fiscal year 2015 compared to 75,171 arrests in the same period in fiscal year 2014. Those declines occurred across the board of criminal offenses. We have recently learned that between fiscal year 2010 and fiscal year 2014, 121 criminal illegal immigrants were charged with homicide following their release from ICE custody. The administration failed to remove these criminals from the United States. And 64 of those were released by ICE at its own discretion, not pursuant to any court order.    It was also revealed that the administration has repeatedly released the same criminal aliens. At our March 19 hearing on the President's executive actions, the committee discussed the fact that in fiscal year 2013 ICE released 36,007 criminals, convicted criminals, that were in its custody. And we have learned that 1,000 of those criminals who were released have already been convicted again of new crimes.    And if that were not bad enough, we have since learned that ICE released 156 of those repeat offenders again into American communities instead of returning them to their home country.    Plainly, the President's assertion his administration will keep focusing enforcement resources on actual threats to our security is not--is contradicted by those facts. Simply put, the President's policy changes are not doing a good job of protecting the safety of the American people.    Now, the legality of the immigration policy change has been called into question both by this Congress and by the Federal courts. And, in fact, on February 16, a Federal judge ruled that the administration failed to comply with the law when they implemented the President's executive action. In a subsequent order, on April 7, that same judge stated that he was, quote, ``extremely troubled by multiple representations made by the government's counsel, both in the writing and orally, about the administration's implementation of the revisions to his immigration policy.''    Taken as a whole, these facts make it clear that the President's unilateral changes are failing to achieve the stated purpose of protecting the American people. They also call into question the legality of certain actions taken by the administration in implementing those changes, and these are changes both in terms of the policy effect and the legality that they--that we will review today.    Without objection, the chairman is authorized to declare a recess at any time.    I now recognize the ranking member of the National Security Subcommittee, Mr. Lynch, for 5 minutes.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Lynch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lynch. Thank you, Mr. Chairman.    I also want to thank our panelists for your willingness to testify and help the committee with its work.    Today will mark the fourth hearing held by this committee since the beginning of the 114th Congress to examine the executive actions on immigration announced by President Obama in November of 2014. We have also reviewed the Department of Homeland Security's revised immigration enforcement policies at both the subcommittee and full committee level, and we have examined the economic impact of recent executive actions. We have even looked at the questionable premise that those executive actions will somehow encourage voter fraud in State and Federal elections.    Now, I understand that these continued hearings may stem from disagreement over the administration's course of action on immigration. I have my own concerns about the precedent set by executive actions when it comes to other major policy issues that may affect future Congresses. However, I also share President Obama's frustration with the inability of some Members of Congress to support a balanced and sustainable immigration policy.    Too often this immigration debate becomes a battle between the throw-them-all-out crowd and the let-them-all-in crowd. But the truth of the matter is that we simply need to develop a responsible and sustainable immigration policy. And I think we all agree that the current arrangement is not working.    The United States has always been a nation of immigrants and welcoming those who would help build our country and who want to come here for all the right reasons. That's a fundamental American principle. That's why I strongly believe that our primary focus as lawmakers and members of this committee should be to make every effort to overcome the legislative gridlock that has defined immigration reform thus far so that Congress affords itself the opportunity to thoroughly debate and shape our Nation's immigration policy going forward.    In addition, we must ensure that those Federal agencies responsible for immigration enforcement, such as the Department of Homeland Security, have the resources and tools that they need to do their jobs. Regrettably that is not the case. As noted in the Department-wide memo issued by Secretary Jeh Johnson in November of 2014, ``Due to the limited resources, DHS and its components cannot respond to all immigration violations or remove all persons illegally in the United States.'' This is especially true given that the Federal Government is still operating under sequestration. In addition, Congress recently approved a budget blueprint that contemplates cutting nondefense spending, including Homeland Security budget, by $500 million below the sequester-level spending caps.    In spite of budgetary constraints, the Department of Homeland Security has detained and deported more individuals than during any other period in its history. According to the immigration--excuse me, the Migration Policy Institute, roughly 1.95 million people were removed from the United States between 2008 and 2013, those 6 years. That's approximately the same number who were subject to removal during the 8 years of the Bush administration.    In accordance with the guidance issued by Secretary Johnson last year, the Department also continues to conduct its enforcement and removal activities by prioritizing high-level threats to National security, border security, and public safety. Chief among the highest priority threats are undocumented immigrants suspected or engaged in terrorism or espionage, convicted felons, and those convicted of criminal street gang activity.    DHS is also seeking to strengthen its ability to collect and analyze immigration data in response to the recommendations issued by DHS Inspector General Roth, who is a guest of ours today, in May of 2015, regarding how best to enhance enforcement efficiency. Specifically, the inspector general's report notes that DHS agreed with the report's recommendation and plans to initiate a multipronged approach to gathering essential data on its use of prosecutorial discretion through its Office of Immigration Statistics.    Secretary Johnson ordered the Department and its components to fully comply with a February 2015 injunction issued by the U.S. District Court for the Southern District of Texas to halt the expansion of the Deferred Action for Childhood Arrivals program and the creation of a Deferred Action for Parental Accountability Program. In particular, Secretary Johnson announced on the day after the decision that DHS would not accept requests for expanded childhood arrivals and will suspend its plan to accept requests for the new parental accountability program. He has also requested that the Inspector General Roth investigate the issuance of approximately 2,000 expanded work permits by U.S. citizens ship and immigration services that were already in process but not halted quickly enough in violation of the injunction. And I understand that the Department has been cooperating with the Inspector General's Office thus far.    So, Mr. Chairman, I look forward to discussing the progress of this investigation and other issues pertaining to our improving immigration enforcement with our panelists.    And I yield back the balance of my time.</t>
   </si>
   <si>
@@ -73,27 +67,18 @@
     <t>412226</t>
   </si>
   <si>
-    <t>Jim Jordan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Jordan. Thank you, Mr. Chairman. I'll be brief.    Here are the facts. As the chairman indicated, 22 times the President said he couldn't do what he did. Federal judge agreed with the President, what he said 22 times, and said the executive amnesty order was in fact wrong. That judge has said attorneys for the government, when they came before the court, misrepresented the facts. And after the injunction, the Department of Homeland Security violated the judge's order when they sent 3-year work authorizations to approximately 2,000 individuals. Those are the facts. That's what we need to get the answers to. That's why I'm pleased our panel is here, so they can answer our questions.    And I think this is a hearing very necessary, Mr. Chairman. I appreciate the chance to be here. Appreciate you calling the hearing.    With that, I yield back.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. DeSantis. Gentleman yields back.    The chair now recognizes my friend from Pennsylvania, the ranking member on the Health Care, Benefits, and Administrative Rules Subcommittee, Mr. Cartwright, for his opening statement.</t>
   </si>
   <si>
-    <t>Cartwright</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cartwright. Thank you, Mr. Chairman, and thank you to our witnesses for joining us today. I look forward to hearing how the administration is working to uphold this Nation's immigration laws. Following the issuance of the administration's executive actions on November 20, 2014, a lawsuit temporarily halted the rollout of new and expanded deferred action programs. The Department of Homeland Security trained its personnel and has begun implementing and working on new prosecutorial discretion policies, and U.S. Immigration and Customs Enforcement, ICE, prepared for the rollout of the new Priority Enforcement Program.    In the midst of all that's happened, I think some of my colleagues have forgotten the reasons for the actions in the first place. Our immigration system was and continues to be in dire need of reform. DHS faces 11 million undocumented immigrants and does not have the resources available to remove them all. Many of these individuals have been in this country for upwards of a decade, living in the shadows, raising their children, many of whom were born in the United States.    The Senate passed a bipartisan comprehensive reform bill in 2013, but legislative efforts have ground to a halt in the House because of Republican opposition. In the face of legislative inaction, DHS issued a series of memoranda attempting to address the growing undocumented population. One memo provided guidance to more consistently focus resources on removing the most dangerous criminals and the most serious threats to public safety. Another memo announced efforts to improve the partnership between DHS and State and local law enforcement. Yet another memo modified deferred action policies in order to provide temporary stability to hardworking peaceful immigrants who are willing to pay their dues.    These executive polices attempted to solve problems, but the executive branch can only go so far legally. And the immigration system will remain broken until Congress passes a legislative solution. Republicans in Congress have been happy to challenge and question and criticize the administration for its actions instead of offering solutions. Now, given the recent Texas Federal Court injunction, it is my belief that the USCIS Director Leon Rodriguez understands his responsibility to comply with the law and that he has worked quickly to halt the implementation of the new and expanded deferred action programs as soon as possible.    I also appreciate that the USCIS has taken full responsibility for the release of work permits after the injunction was ordered, and I look forward to hearing today about changes at USCIS that will ensure that this kind of thing doesn't happen again.    But while the courts hear the legal challenges to the administration's actions and while Republicans in Congress criticize those actions themselves, the problems in our Nation's immigration system persist.    I urge that my colleague across the aisle turn their efforts toward lawmaking and away from bellyaching. Moving forward, I hope we can finally focus on comprehensive lasting legislative solutions. This is the work and attention our broken immigration system and the millions affected by it so desperately need.    I thank you, and I yield back, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. DeSantis. Gentleman yields back. Thank you.    I will hold the record open for 5 legislative days for any members who would like to submit a written statement.    We will now recognize our witnesses. And I'm pleased to welcome Ms. Sarah Saldana, Director of U.S. Immigration and Customs Enforcement; Mr. Leon Rodriguez, Director of U.S. Citizenship and Immigration Service; and Mr. John Roth, inspector general at the U.S. Department of Homeland Security.    Welcome all.    Pursuant to committee rules, all witnesses will be sworn in before they testify.    If you please rise and raise your right hands.    Do you solemnly swear the testimony you are about to give will be the truth, the whole truth, and nothing but the truth, so help you God?    Thank you. Please be seated.    All witnesses answered in the affirmative.    In order to allow time for discussion, please limit your testimony to 5 minutes. Your entire written statement will be made part of the record.    And, with that, Ms. Saldana, you're up for 5 minutes. Thank you.</t>
   </si>
   <si>
-    <t>Saldana</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Saldana. Thank you, Chairman Jordan and DeSantis and ranking member----    [Disturbance in hearing room.]</t>
   </si>
   <si>
@@ -106,18 +91,12 @@
     <t xml:space="preserve">    Mr. DeSantis. Thank you. Gentlewoman's time is expired.    The chair now recognizes Mr. Rodriguez for 5 minutes.    You're up.</t>
   </si>
   <si>
-    <t>Rodriguez</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rodriguez. Good afternoon, chairman--chairmen, ranking members, and members of the committee. Thank you very much for inviting me to be here today.    I have talked about my own personal story before. I am the son of Cuban refugees from south Florida. I have talked often about the sufferings that led them and my grandparents to make the choices to come here to the United States and the hopes and dreams that they brought with them when they came here. This has taught me as Director of USCIS that every file we see, whether it is a DACA request, naturalization request, a refugee filing, a worker visa filing, that all of these cases represent one family's hopes and dreams and, in many cases, that family's sufferings. I believe deeply in the work that we do as USCIS. And I believe in it because it requires us both from a perspective of immigration policy and operating the immigration system to answer fundamental questions about our country.    Will we be a prosperous country, or will we not? Will we keep families together, or will we allow them to be fragmented and destroyed? Will we be guided by the rule of law, or will we not? Will we protect the National security, or will we not? Will we lead when there are issues, or will we just watch as those issues deepen, become worse, become problems and even crises?    Unfortunately, for too long, our political system failed to answer these questions with respect to a number of aspects of our immigration system. Not simply the situation of those who are here in undocumented status, and the many members of their families who are here legally but also those aspects of our immigration system that bear critically on our economic prosperity and our civic stability. It is for this reason that the President issued his executive actions back in November of 2014, focusing on promoting integration of immigrants, promoting actual accountability of those who are here in an undocumented status, a condition that did not exist before the President took that step, and promoting within the confines of what the law allows him, an immigration system that fully promotes our economic success as a country.    The President was building on the success of the 2012 DACA program, and there are many success stories. Young people who have become teachers, nurses, doctors--in one case now, even a lawyer--and who really demonstrate the potential that they have to contribute to the United States. Our work was enjoined by the court in Texas. The one thing I'd like to underscore about that is that it's not over until it's over. We believe in the legality of our policies, and we believe that in the end we will be vindicated by the legal process.    Nonetheless, when the court issues an injunction, I as the Director of USCIS, as an attorney, and as a former prosecutor, ordered the immediate cessation of all activities to implement the deferred action policies under the President's executive actions. One of those actions was to stop the issuance of 3-year work authorizations that had actually been granted the week before the injunction was issued. Unfortunately, through a miscommunication, those work authorizations were issued anyway. I have taken full responsibility, both in this forum and before the court, and to say that I took it before the court is to say something significant. I am an attorney. I am a former prosecutor. And I have said very clearly to Judge Hanen: I am responsible. I am accountable for what my agency did.    The question, now, though is as I take accountability, will we as a political system take full accountability for the challenges that we have in our immigration system. The President made it very clear at the time that he issued the executive orders, that they could be stopped immediately if instead we found a legislative solution to the ongoing now decades-long challenges presented by the undocumented, presented by the insufficiency of our immigration system to meet our economic needs. I stand here today ready to work with all of you to work toward those improvements.    Thank you, and I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. DeSantis. Thank the gentleman.    Chair now recognizes Inspector Roth for 5 minutes.</t>
   </si>
   <si>
-    <t>Roth</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Roth. Good afternoon, Chairmen Jordan and DeSantis, chairman member--Ranking Members Cartwright and Lynch, and members of the subcommittee. Thank you for inviting me here to today to discuss DHS' collection of prosecutorial discretion data.    DHS has instituted various policies over time that allow the use of prosecutorial discretion in making immigration enforcement decisions. However, the Department does not collect or use such data to help assess immigration policy, evaluate the effectiveness and results of enforcement actions, or be able to assess the reasonableness of the exercise of that discretion on the part of DHS personnel.    Since DHS' formation in 2003, ICE has implemented various policies to focus its efforts on criminal and civil enforcement priorities. It has also used policies for processing aliens with special circumstances, such as crime victims and witnesses, nursing mothers and the elderly, as well as ensuring that enforcement actions are not focused on sensitive locations, such as schools and churches.    At the time of our audit, ICE's removal actions were governed by a series of policy memoranda signed by then-ICE Director John Morton in March and June of 2011 and focused its enforcement resources on three things: One, aliens who pose a danger to national security or risk to public safety; two, aliens who recently violated the immigration controls at the border and ports of entry or knowingly abused the visa process; and, three, aliens who were fugitives or otherwise obstruct immigrations controls.    Additionally, a year later, in 2012, the Department issued guidance, known as the Deferred Action for Childhood Arrivals, known as DACA, which allows the use of prosecutorial discretion to defer action or release some aliens who came to the United States as children and meet other criteria. Despite its reliance on discretion to prioritize enforcement resources, ICE often does not collect prosecutorial discretion data and does not always ensure that its statistics are accurate and complete. For example, ICE records its use of prosecutorial discretion broadly, without distinguishing the various types of exceptions to removal, such as DACA-related exceptions.    Additionally, prosecutorial discretion statistics may be inaccurate because enforcement officers may not document every encounter with aliens it considers to be a low enforcement priority. ICE officials told us that field personnel often do not record their use of prosecutorial discretion because it is too time-consuming. As a result, data that supports decisions on the use of prosecutorial discretion may not be available.    DHS should ensure it can support its decisions with solid data. A feedback mechanism for the use of prosecutorial discretion could help DHS identify gaps, set goals, determine budget requirements, and provide information to improve program performance. In terms of overall immigration enforcement policy, such a mechanism could help develop sound future programs and policies. In addition to assisting in the overall policymaking process, capturing the right information would allow the Department to ensure that the proper and evenhanded application of the policies exist.    As it stands now, there's no mechanism by which to assess the reasonableness of an individual officer's exercise of discretion to compare prosecutorial discretion decisions for similarly situated aliens or to compare the use of prosecutorial discretion by various field offices. This data, if collected, could also be used to evaluate the performance of individual officers or field offices.    Uneven or inconsistent policy enforcement can have a negative effect on DHS' immigration enforcement mission. Here because the Department does not collect data on, much less monitor the use of prosecutorial discretion, we are unable to determine whether the Department is using prosecutorial discretion consistently or fairly.    The Department agreed with our recommendations in our audit to improve collection and analysis and reporting of data on the use of prosecutorial discretion. DHS is planning a multipronged approach for assessing and accounting for its immigration enforcement efforts. We believe such a strategy is particularly important given that over the last two fiscal years, ICE, CBP, and USCIS collectively received on average about $21 billion annually for immigration enforcement.    Chairmen DeSantis and Jordan, this concludes my prepared statement. I'd be happy to answer any questions you or members of the committee may have.</t>
   </si>
   <si>
@@ -307,9 +286,6 @@
     <t xml:space="preserve">    Mr. Jordan. Thank you, Mr. Chairman.</t>
   </si>
   <si>
-    <t>Russell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Russell. [Presiding.] The chair now recognizes the gentleman from Pennsylvania, Mr. Cartwright, for 5 minutes.</t>
   </si>
   <si>
@@ -418,9 +394,6 @@
     <t xml:space="preserve">    Mr. Russell. Well, I appreciate those answers. Unfortunately, as time moves by, we see some drastic consequences. I am out of time.    And I will now recognize the gentleman from California, Mr. Lieu.</t>
   </si>
   <si>
-    <t>Lieu</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lieu. Thank you, Mr. Chair. I would like to spend some time discussing an issue that is very important to me and to many Members of Congress and that is the continued detention of women, children, and infants in prison-like conditions. As you know, in 2009, the Department of Homeland Security shut down the Texas, Hutto, a jail-like family facility, because it was inhumane, because of reports of abuse, and harsh conditions.    So I was surprised in your testimony that you said your agency is opening up additional facilities. And that's particularly surprising to me because, as you know, the American Immigration Lawyers Association has stated that virtually all of these folks can qualify for asylum because they are fleeing terrifying conditions of violence, abuse, and crime, and they have a fear of removal.    You also know that last November, Homeland Security Secretary Johnson wrote in a memo, and ``Field office directors should not expend detention resources on aliens who are pregnant or nursing, who demonstrate that they are primary caretakers of children or an infirm person or whose detention is otherwise not in the public interest.''    So, in light of that guidance, I'm asking, why does ICE continue to expend precious resources to detain thousands of families en masse, including children and infants, in prison-like conditions?</t>
   </si>
   <si>
@@ -457,9 +430,6 @@
     <t>412474</t>
   </si>
   <si>
-    <t>Mick Mulvaney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mulvaney. Thanks very much. Reset the clock please.    Ms. Saldana, who do you report to?</t>
   </si>
   <si>
@@ -601,9 +571,6 @@
     <t xml:space="preserve">    Mr. Russell. The chair now recognizes the gentlelady from Illinois, Ms. Kelly.</t>
   </si>
   <si>
-    <t>Kelly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Kelly. Thank you, Mr. Chair. Ms. Saldana, would you say what you wanted to say?</t>
   </si>
   <si>
@@ -658,9 +625,6 @@
     <t>412623</t>
   </si>
   <si>
-    <t>Jody B. Hice</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hice. Thank you, Mr. Chairman.    Ms. Saldana, do you have any idea how many convicted criminals have been arrested by ICE this year?</t>
   </si>
   <si>
@@ -742,9 +706,6 @@
     <t>412558</t>
   </si>
   <si>
-    <t>Michelle Lujan Grisham</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Lujan Grisham. Thank you, Mr. Chairman.    I'm going to talk about a couple of folks in my district. One young woman, Yuridia Loera was brought to this country when she was 2 years old. She currently attends the University of New Mexico, my alma matter. Because of DACA, frankly, she was able to travel to Nicaragua and volunteer at a nonprofit for underprivileged children. Now, Yuridia wants to attend medical school and provide health care to underserved rural communities. And given that that reflects the entire State and we are in dire straits currently about making sure that we can meet just primary care access issues pre-ACA, during ACA, and the growing number of minority individuals in a minority-majority State, this is a wonderful thing in a State like mine and I can tell you in the Southwest in general.    Another woman, Marian Mendez Setta is a senior at UNM and she's studying psychology and philosophy with a concentration in pre-law. And maybe she'll go to my law school also at the University of New Mexico. She comes from a low-income family. And because of DACA, she's able to work to not only pay for her school, but she helps her parents out financially as well. I do the very same for my mother, very strong cultural values in my Hispanic community.    Now, Chairman Chaffetz, I think, did an interesting thing in this committee, and we're looking all around us at these beautiful walls with images of hard-working individuals who are dedicated to their work and their families and their communities. Considering that Congress failed to act on comprehensive immigration reform to ensure that everyone has the opportunity to work, learn, and contribute to the country, I support, frankly, the President's actions on immigration.    However, I have heard several concerns about inconsistencies in how the President's actions are being applied. Immigration advocacy groups have been tracking reports concerning violations of the priorities memo. And after receiving hundreds of phone calls, they are hearing that ICE field offices may not be applying the priorities appropriately. Furthermore, on April 15, over 100 organizations wrote to DHS, Secretary Johnson, expressing similar concern. That letter states, ``we have received numerous reports indicating that several ICE offices are failing to comply with the priorities memo.'' Even people who do not fall under any priority whatsoever have been removed. Mr. Chairman, I would like to enter this letter into the record.</t>
   </si>
   <si>
@@ -775,9 +736,6 @@
     <t>412670</t>
   </si>
   <si>
-    <t>Mark Walker</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walker. Thank you, Mr. Chairman.    Obviously, today, we are talking about a very emotional issue, this goes beyond policy and really has to deal with human life.    I'm very grateful for Mr. Roth, Mr. Rodriguez, and Ms. Saldana for coming in today. But I do believe that we have got to look at very closely as far as some of the problems we are seeing.    The gentlewoman from New Mexico just talked a young lady from DACA and how it was working out for her. Let me tell you another example of someone from the--that was released even after a drug charge, a gentleman by the name of Emmanuel Hernandez, in my home State of North Carolina, murdered four people. This was after he was a known gang member and after he was picked up with a drug offense. He applied for DACA, and his deportation was halted.    Ms. Saldana, earlier you brought in a book and laid it there on the desk. The book basically is the Immigration National Act. And I don't know if you're familiar with section 236-C, which is basically the detention of criminal aliens. Are you familiar with that section, Ms. Saldana?</t>
   </si>
   <si>
@@ -826,9 +784,6 @@
     <t>400295</t>
   </si>
   <si>
-    <t>Eleanor Holmes Norton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Norton. I will remember that, Mr. Chairman.    There's concern in the District of Columbia because the D.C. Council passed a law, it allows driver's licenses. There have been some reports in the papers about ICE's use of DMV data to initiate removal proceedings against immigrants. I would have some concerns. And I'm wondering if you can tell me whether DMV databases are being used for removal purposes.</t>
   </si>
   <si>
@@ -860,9 +815,6 @@
   </si>
   <si>
     <t>412622</t>
-  </si>
-  <si>
-    <t>Earl L. "Buddy" Carter</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Carter. Thank you, Mr. Chairman.    Ms. Saldana, Mr. Walker asked you earlier about the recidivism rate for aliens who were previously apprehended, subsequently released, and who have committed a new crime. You said you do not have those numbers available?</t>
@@ -1351,11 +1303,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1375,13 +1325,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1403,11 +1351,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1427,13 +1373,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1455,11 +1399,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1479,13 +1421,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1507,11 +1447,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1531,13 +1469,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1559,11 +1495,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1583,13 +1517,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1611,11 +1543,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1635,13 +1565,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1663,11 +1591,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1687,13 +1613,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1715,11 +1639,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1739,13 +1661,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1767,11 +1687,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1791,13 +1709,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1819,11 +1735,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1843,13 +1757,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1871,11 +1783,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1895,13 +1805,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1923,11 +1831,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1947,13 +1853,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1975,11 +1879,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1999,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2027,11 +1927,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2051,13 +1949,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2079,11 +1975,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2103,13 +1997,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2131,11 +2023,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2155,13 +2045,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2183,11 +2071,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2207,13 +2093,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2235,11 +2119,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2259,13 +2141,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2287,11 +2167,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2311,13 +2189,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2339,11 +2215,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2363,13 +2237,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2391,11 +2263,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2415,13 +2285,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2443,11 +2311,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2467,13 +2333,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2493,13 +2357,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2519,13 +2381,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2545,13 +2405,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2571,13 +2429,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2597,13 +2453,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2623,13 +2477,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2649,13 +2501,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2675,13 +2525,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2703,11 +2551,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2727,13 +2573,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2753,13 +2597,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s">
-        <v>30</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2779,13 +2621,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2805,13 +2645,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>30</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2831,13 +2669,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2857,13 +2693,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>30</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2883,13 +2717,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2909,13 +2741,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>30</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2935,13 +2765,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2961,13 +2789,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>30</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2987,13 +2813,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3013,13 +2837,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s">
-        <v>30</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3039,13 +2861,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3065,13 +2885,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s">
-        <v>30</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3091,13 +2909,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3117,13 +2933,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s">
-        <v>30</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3143,13 +2957,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3169,13 +2981,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s">
-        <v>30</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3195,13 +3005,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3221,13 +3029,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s">
-        <v>33</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3247,13 +3053,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3273,13 +3077,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s">
-        <v>33</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3299,13 +3101,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3325,13 +3125,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s">
-        <v>97</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3351,13 +3149,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3377,13 +3173,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" t="s">
-        <v>30</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3403,13 +3197,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3429,13 +3221,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s">
-        <v>30</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3455,13 +3245,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3481,13 +3269,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s">
-        <v>30</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3507,13 +3293,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3533,13 +3317,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" t="s">
-        <v>30</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3559,13 +3341,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3585,13 +3365,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" t="s">
-        <v>30</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3611,13 +3389,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3637,13 +3413,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" t="s">
-        <v>30</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3663,13 +3437,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3689,13 +3461,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" t="s">
-        <v>30</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3715,13 +3485,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3741,13 +3509,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s">
-        <v>30</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3767,13 +3533,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3793,13 +3557,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" t="s">
-        <v>30</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3819,13 +3581,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3845,13 +3605,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s">
-        <v>30</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3871,13 +3629,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3897,13 +3653,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s">
-        <v>30</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3923,13 +3677,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3949,13 +3701,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" t="s">
-        <v>30</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3975,13 +3725,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" t="s">
-        <v>97</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4001,13 +3749,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" t="s">
-        <v>33</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4027,13 +3773,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" t="s">
-        <v>97</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4053,13 +3797,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" t="s">
-        <v>33</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4079,13 +3821,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" t="s">
-        <v>97</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4105,13 +3845,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>14</v>
-      </c>
-      <c r="G108" t="s">
-        <v>33</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4131,13 +3869,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" t="s">
-        <v>97</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4157,13 +3893,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G110" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4183,13 +3917,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" t="s">
-        <v>97</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4209,13 +3941,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4235,13 +3965,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113" t="s">
-        <v>97</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4261,13 +3989,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" t="s">
-        <v>134</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4287,13 +4013,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>14</v>
-      </c>
-      <c r="G115" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4313,13 +4037,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>14</v>
-      </c>
-      <c r="G116" t="s">
-        <v>134</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4339,13 +4061,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>14</v>
-      </c>
-      <c r="G117" t="s">
-        <v>97</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4365,13 +4085,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" t="s">
-        <v>134</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4391,13 +4109,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>14</v>
-      </c>
-      <c r="G119" t="s">
-        <v>134</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4417,13 +4133,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>14</v>
-      </c>
-      <c r="G120" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4443,13 +4157,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>14</v>
-      </c>
-      <c r="G121" t="s">
-        <v>134</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4469,13 +4181,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4495,13 +4205,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" t="s">
-        <v>134</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4521,13 +4229,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>14</v>
-      </c>
-      <c r="G124" t="s">
-        <v>97</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4547,13 +4253,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>146</v>
-      </c>
-      <c r="G125" t="s">
-        <v>147</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4573,13 +4277,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>14</v>
-      </c>
-      <c r="G126" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4599,13 +4301,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>146</v>
-      </c>
-      <c r="G127" t="s">
-        <v>147</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4625,13 +4325,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>14</v>
-      </c>
-      <c r="G128" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4651,13 +4349,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>146</v>
-      </c>
-      <c r="G129" t="s">
-        <v>147</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4677,13 +4373,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>14</v>
-      </c>
-      <c r="G130" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4703,13 +4397,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>146</v>
-      </c>
-      <c r="G131" t="s">
-        <v>147</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4729,13 +4421,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>14</v>
-      </c>
-      <c r="G132" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4755,13 +4445,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
+        <v>137</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
         <v>146</v>
-      </c>
-      <c r="G133" t="s">
-        <v>147</v>
-      </c>
-      <c r="H133" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4781,13 +4469,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>14</v>
-      </c>
-      <c r="G134" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4807,13 +4493,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>146</v>
-      </c>
-      <c r="G135" t="s">
-        <v>147</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4833,13 +4517,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>14</v>
-      </c>
-      <c r="G136" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4859,13 +4541,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>146</v>
-      </c>
-      <c r="G137" t="s">
-        <v>147</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4885,13 +4565,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>14</v>
-      </c>
-      <c r="G138" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4911,13 +4589,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>146</v>
-      </c>
-      <c r="G139" t="s">
-        <v>147</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4937,13 +4613,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>14</v>
-      </c>
-      <c r="G140" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4963,13 +4637,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>146</v>
-      </c>
-      <c r="G141" t="s">
-        <v>147</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4989,13 +4661,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>14</v>
-      </c>
-      <c r="G142" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5015,13 +4685,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>146</v>
-      </c>
-      <c r="G143" t="s">
-        <v>147</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5041,13 +4709,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>14</v>
-      </c>
-      <c r="G144" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5067,13 +4733,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>146</v>
-      </c>
-      <c r="G145" t="s">
-        <v>147</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5093,13 +4757,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>14</v>
-      </c>
-      <c r="G146" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5119,13 +4781,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>146</v>
-      </c>
-      <c r="G147" t="s">
-        <v>147</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5145,13 +4805,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>14</v>
-      </c>
-      <c r="G148" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5171,13 +4829,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>146</v>
-      </c>
-      <c r="G149" t="s">
-        <v>147</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5197,13 +4853,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>14</v>
-      </c>
-      <c r="G150" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5223,13 +4877,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>146</v>
-      </c>
-      <c r="G151" t="s">
-        <v>147</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5249,13 +4901,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>14</v>
-      </c>
-      <c r="G152" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5275,13 +4925,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>146</v>
-      </c>
-      <c r="G153" t="s">
-        <v>147</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5301,13 +4949,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>14</v>
-      </c>
-      <c r="G154" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5327,13 +4973,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>146</v>
-      </c>
-      <c r="G155" t="s">
-        <v>147</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5353,13 +4997,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>14</v>
-      </c>
-      <c r="G156" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5379,13 +5021,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>146</v>
-      </c>
-      <c r="G157" t="s">
-        <v>147</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5405,13 +5045,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>14</v>
-      </c>
-      <c r="G158" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5431,13 +5069,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>146</v>
-      </c>
-      <c r="G159" t="s">
-        <v>147</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5457,13 +5093,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>14</v>
-      </c>
-      <c r="G160" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5483,13 +5117,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>146</v>
-      </c>
-      <c r="G161" t="s">
-        <v>147</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5509,13 +5141,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>14</v>
-      </c>
-      <c r="G162" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5535,13 +5165,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>146</v>
-      </c>
-      <c r="G163" t="s">
-        <v>147</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5561,13 +5189,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>14</v>
-      </c>
-      <c r="G164" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5587,13 +5213,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>146</v>
-      </c>
-      <c r="G165" t="s">
-        <v>147</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5613,13 +5237,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>14</v>
-      </c>
-      <c r="G166" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5639,13 +5261,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>146</v>
-      </c>
-      <c r="G167" t="s">
-        <v>147</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5665,13 +5285,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>14</v>
-      </c>
-      <c r="G168" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5691,13 +5309,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>146</v>
-      </c>
-      <c r="G169" t="s">
-        <v>147</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5717,13 +5333,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>14</v>
-      </c>
-      <c r="G170" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5743,13 +5357,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>146</v>
-      </c>
-      <c r="G171" t="s">
-        <v>147</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5769,13 +5381,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>14</v>
-      </c>
-      <c r="G172" t="s">
-        <v>97</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5795,13 +5405,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>14</v>
-      </c>
-      <c r="G173" t="s">
-        <v>195</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5821,13 +5429,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>14</v>
-      </c>
-      <c r="G174" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5847,13 +5453,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>14</v>
-      </c>
-      <c r="G175" t="s">
-        <v>195</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5873,13 +5477,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>14</v>
-      </c>
-      <c r="G176" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5899,13 +5501,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>14</v>
-      </c>
-      <c r="G177" t="s">
-        <v>195</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5925,13 +5525,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>14</v>
-      </c>
-      <c r="G178" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5951,13 +5549,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>14</v>
-      </c>
-      <c r="G179" t="s">
-        <v>195</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5977,13 +5573,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>14</v>
-      </c>
-      <c r="G180" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6003,13 +5597,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>14</v>
-      </c>
-      <c r="G181" t="s">
-        <v>195</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6029,13 +5621,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>14</v>
-      </c>
-      <c r="G182" t="s">
-        <v>33</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6055,13 +5645,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>14</v>
-      </c>
-      <c r="G183" t="s">
-        <v>195</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6081,13 +5669,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>14</v>
-      </c>
-      <c r="G184" t="s">
-        <v>33</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6107,13 +5693,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>14</v>
-      </c>
-      <c r="G185" t="s">
-        <v>195</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6133,13 +5717,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>14</v>
-      </c>
-      <c r="G186" t="s">
-        <v>33</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6159,13 +5741,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>14</v>
-      </c>
-      <c r="G187" t="s">
-        <v>195</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6185,13 +5765,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>14</v>
-      </c>
-      <c r="G188" t="s">
-        <v>33</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6211,13 +5789,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>14</v>
-      </c>
-      <c r="G189" t="s">
-        <v>195</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6237,13 +5813,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>14</v>
-      </c>
-      <c r="G190" t="s">
-        <v>97</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6263,13 +5837,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>213</v>
-      </c>
-      <c r="G191" t="s">
-        <v>214</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6289,13 +5861,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>14</v>
-      </c>
-      <c r="G192" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6315,13 +5885,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>213</v>
-      </c>
-      <c r="G193" t="s">
-        <v>214</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6341,13 +5909,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>14</v>
-      </c>
-      <c r="G194" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6367,13 +5933,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>213</v>
-      </c>
-      <c r="G195" t="s">
-        <v>214</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6393,13 +5957,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>14</v>
-      </c>
-      <c r="G196" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6419,13 +5981,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>213</v>
-      </c>
-      <c r="G197" t="s">
-        <v>214</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6445,13 +6005,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>14</v>
-      </c>
-      <c r="G198" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6471,13 +6029,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>213</v>
-      </c>
-      <c r="G199" t="s">
-        <v>214</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6497,13 +6053,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>14</v>
-      </c>
-      <c r="G200" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6523,13 +6077,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
+        <v>202</v>
+      </c>
+      <c r="G201" t="s"/>
+      <c r="H201" t="s">
         <v>213</v>
-      </c>
-      <c r="G201" t="s">
-        <v>214</v>
-      </c>
-      <c r="H201" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6549,13 +6101,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>14</v>
-      </c>
-      <c r="G202" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6575,13 +6125,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>213</v>
-      </c>
-      <c r="G203" t="s">
-        <v>214</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6601,13 +6149,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>14</v>
-      </c>
-      <c r="G204" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6627,13 +6173,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>213</v>
-      </c>
-      <c r="G205" t="s">
-        <v>214</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6653,13 +6197,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>14</v>
-      </c>
-      <c r="G206" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6679,13 +6221,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>213</v>
-      </c>
-      <c r="G207" t="s">
-        <v>214</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6705,13 +6245,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>14</v>
-      </c>
-      <c r="G208" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6731,13 +6269,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>213</v>
-      </c>
-      <c r="G209" t="s">
-        <v>214</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6757,13 +6293,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>14</v>
-      </c>
-      <c r="G210" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6783,13 +6317,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>213</v>
-      </c>
-      <c r="G211" t="s">
-        <v>214</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6809,13 +6341,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>14</v>
-      </c>
-      <c r="G212" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6835,13 +6365,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>213</v>
-      </c>
-      <c r="G213" t="s">
-        <v>214</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6861,13 +6389,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>14</v>
-      </c>
-      <c r="G214" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6887,13 +6413,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>213</v>
-      </c>
-      <c r="G215" t="s">
-        <v>214</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6913,13 +6437,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>14</v>
-      </c>
-      <c r="G216" t="s">
-        <v>97</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6939,13 +6461,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>241</v>
-      </c>
-      <c r="G217" t="s">
-        <v>242</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6965,13 +6485,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>14</v>
-      </c>
-      <c r="G218" t="s">
-        <v>97</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6991,13 +6509,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>241</v>
-      </c>
-      <c r="G219" t="s">
-        <v>242</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7017,13 +6533,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>14</v>
-      </c>
-      <c r="G220" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7043,13 +6557,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>241</v>
-      </c>
-      <c r="G221" t="s">
-        <v>242</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7069,13 +6581,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>14</v>
-      </c>
-      <c r="G222" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7095,13 +6605,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>241</v>
-      </c>
-      <c r="G223" t="s">
-        <v>242</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7121,13 +6629,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>14</v>
-      </c>
-      <c r="G224" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7147,13 +6653,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>241</v>
-      </c>
-      <c r="G225" t="s">
-        <v>242</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7173,13 +6677,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>14</v>
-      </c>
-      <c r="G226" t="s">
-        <v>97</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7199,13 +6701,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>14</v>
-      </c>
-      <c r="G227" t="s">
-        <v>97</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7225,13 +6725,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>252</v>
-      </c>
-      <c r="G228" t="s">
-        <v>253</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7251,13 +6749,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>14</v>
-      </c>
-      <c r="G229" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7277,13 +6773,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>252</v>
-      </c>
-      <c r="G230" t="s">
-        <v>253</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7303,13 +6797,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>14</v>
-      </c>
-      <c r="G231" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7329,13 +6821,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>252</v>
-      </c>
-      <c r="G232" t="s">
-        <v>253</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7355,13 +6845,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>14</v>
-      </c>
-      <c r="G233" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7381,13 +6869,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>252</v>
-      </c>
-      <c r="G234" t="s">
-        <v>253</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7407,13 +6893,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>14</v>
-      </c>
-      <c r="G235" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7433,13 +6917,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>252</v>
-      </c>
-      <c r="G236" t="s">
-        <v>253</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7459,13 +6941,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>14</v>
-      </c>
-      <c r="G237" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7485,13 +6965,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>252</v>
-      </c>
-      <c r="G238" t="s">
-        <v>253</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7511,13 +6989,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>14</v>
-      </c>
-      <c r="G239" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7537,13 +7013,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>252</v>
-      </c>
-      <c r="G240" t="s">
-        <v>253</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7563,13 +7037,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>14</v>
-      </c>
-      <c r="G241" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7589,13 +7061,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>252</v>
-      </c>
-      <c r="G242" t="s">
+        <v>239</v>
+      </c>
+      <c r="G242" t="s"/>
+      <c r="H242" t="s">
         <v>253</v>
-      </c>
-      <c r="H242" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7615,13 +7085,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>14</v>
-      </c>
-      <c r="G243" t="s">
-        <v>97</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7641,13 +7109,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>269</v>
-      </c>
-      <c r="G244" t="s">
-        <v>270</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7667,13 +7133,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>14</v>
-      </c>
-      <c r="G245" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7693,13 +7157,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>269</v>
-      </c>
-      <c r="G246" t="s">
-        <v>270</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7719,13 +7181,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>14</v>
-      </c>
-      <c r="G247" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7745,13 +7205,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>269</v>
-      </c>
-      <c r="G248" t="s">
-        <v>270</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7771,13 +7229,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>14</v>
-      </c>
-      <c r="G249" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7797,13 +7253,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>269</v>
-      </c>
-      <c r="G250" t="s">
-        <v>270</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7823,13 +7277,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>14</v>
-      </c>
-      <c r="G251" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7849,13 +7301,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>269</v>
-      </c>
-      <c r="G252" t="s">
-        <v>270</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7875,13 +7325,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>14</v>
-      </c>
-      <c r="G253" t="s">
-        <v>97</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7901,13 +7349,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>269</v>
-      </c>
-      <c r="G254" t="s">
-        <v>270</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7927,13 +7373,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>14</v>
-      </c>
-      <c r="G255" t="s">
-        <v>97</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7953,13 +7397,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>281</v>
-      </c>
-      <c r="G256" t="s">
-        <v>282</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7979,13 +7421,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>14</v>
-      </c>
-      <c r="G257" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8005,13 +7445,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>281</v>
-      </c>
-      <c r="G258" t="s">
-        <v>282</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8031,13 +7469,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>14</v>
-      </c>
-      <c r="G259" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8057,13 +7493,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>281</v>
-      </c>
-      <c r="G260" t="s">
-        <v>282</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8083,13 +7517,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>14</v>
-      </c>
-      <c r="G261" t="s">
-        <v>97</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8109,13 +7541,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>281</v>
-      </c>
-      <c r="G262" t="s">
-        <v>282</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8135,13 +7565,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>14</v>
-      </c>
-      <c r="G263" t="s">
-        <v>33</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8161,13 +7589,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>281</v>
-      </c>
-      <c r="G264" t="s">
-        <v>282</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8187,13 +7613,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>14</v>
-      </c>
-      <c r="G265" t="s">
-        <v>33</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8213,13 +7637,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>281</v>
-      </c>
-      <c r="G266" t="s">
-        <v>282</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8239,13 +7661,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>14</v>
-      </c>
-      <c r="G267" t="s">
-        <v>33</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8265,13 +7685,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>281</v>
-      </c>
-      <c r="G268" t="s">
-        <v>282</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8291,13 +7709,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>14</v>
-      </c>
-      <c r="G269" t="s">
-        <v>33</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8317,13 +7733,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
+        <v>266</v>
+      </c>
+      <c r="G270" t="s"/>
+      <c r="H270" t="s">
         <v>281</v>
-      </c>
-      <c r="G270" t="s">
-        <v>282</v>
-      </c>
-      <c r="H270" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8343,13 +7757,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>14</v>
-      </c>
-      <c r="G271" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8369,13 +7781,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>281</v>
-      </c>
-      <c r="G272" t="s">
-        <v>282</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8395,13 +7805,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>14</v>
-      </c>
-      <c r="G273" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8421,13 +7829,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>281</v>
-      </c>
-      <c r="G274" t="s">
-        <v>282</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8447,13 +7853,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>14</v>
-      </c>
-      <c r="G275" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8473,13 +7877,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>281</v>
-      </c>
-      <c r="G276" t="s">
-        <v>282</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8499,13 +7901,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>14</v>
-      </c>
-      <c r="G277" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8525,13 +7925,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>281</v>
-      </c>
-      <c r="G278" t="s">
-        <v>282</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8551,13 +7949,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>14</v>
-      </c>
-      <c r="G279" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8577,13 +7973,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>281</v>
-      </c>
-      <c r="G280" t="s">
-        <v>282</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8603,13 +7997,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>14</v>
-      </c>
-      <c r="G281" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8629,13 +8021,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>281</v>
-      </c>
-      <c r="G282" t="s">
-        <v>282</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8655,13 +8045,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>14</v>
-      </c>
-      <c r="G283" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8681,13 +8069,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>281</v>
-      </c>
-      <c r="G284" t="s">
-        <v>282</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8707,13 +8093,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>14</v>
-      </c>
-      <c r="G285" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8733,13 +8117,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>281</v>
-      </c>
-      <c r="G286" t="s">
-        <v>282</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
